--- a/NYC_review_data.xlsx
+++ b/NYC_review_data.xlsx
@@ -16,22 +16,22 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1364" uniqueCount="1261">
   <si>
-    <t>User Name</t>
-  </si>
-  <si>
-    <t>User Location</t>
+    <t>User_Name</t>
+  </si>
+  <si>
+    <t>User_Location</t>
   </si>
   <si>
     <t>Stars</t>
   </si>
   <si>
-    <t>Entry Date</t>
-  </si>
-  <si>
-    <t>Entry Quote</t>
-  </si>
-  <si>
-    <t>Entry Content</t>
+    <t>Entry_Date</t>
+  </si>
+  <si>
+    <t>Entry_Quote</t>
+  </si>
+  <si>
+    <t>Entry_Content</t>
   </si>
   <si>
     <t>Alberto R</t>
